--- a/init-data/hzero-import/hzero_platform/hzero-iam-menu.xlsx
+++ b/init-data/hzero-import/hzero_platform/hzero-iam-menu.xlsx
@@ -1,36 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HZERO-OPEN-PROJECTS\hzero-resource\init-data\hzero-import\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F20FE16-DF49-4660-B17B-16B1194191F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
-    <sheet name="菜单权限" sheetId="3" r:id="rId3"/>
-    <sheet name="角色权限" sheetId="4" r:id="rId4"/>
-    <sheet name="菜单标签数据" sheetId="5" r:id="rId5"/>
+    <sheet name="菜单" r:id="rId5" sheetId="2"/>
+    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
+    <sheet name="菜单标签数据" r:id="rId7" sheetId="4"/>
+    <sheet name="角色权限" r:id="rId8" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="342">
   <si>
     <r>
       <rPr>
@@ -1999,13 +1998,13 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
   </si>
   <si>
-    <t>菜单-saas</t>
+    <t>菜单</t>
   </si>
   <si>
     <t>iam_menu</t>
@@ -2332,6 +2331,9 @@
     <t>#permission_code</t>
   </si>
   <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
     <t>iam_menu_permission-8</t>
   </si>
   <si>
@@ -2605,6 +2607,9 @@
     <t>iam_menu_permission-67</t>
   </si>
   <si>
+    <t>hzero-interface.interface-server-site-level.detailInterfaceServer</t>
+  </si>
+  <si>
     <t>iam_menu_permission-68</t>
   </si>
   <si>
@@ -2623,6 +2628,87 @@
     <t>iam_menu_permission-73</t>
   </si>
   <si>
+    <t>iam_menu_permission-74</t>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>#type</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>fd_level</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>inherit_flag</t>
+  </si>
+  <si>
+    <t>preset_flag</t>
+  </si>
+  <si>
+    <t>visible_flag</t>
+  </si>
+  <si>
+    <t>iam_label-8</t>
+  </si>
+  <si>
+    <t>HZERO_MENU</t>
+  </si>
+  <si>
+    <t>MENU</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>HZERO菜单标签</t>
+  </si>
+  <si>
+    <t>标签关系表</t>
+  </si>
+  <si>
+    <t>hiam_label_rel</t>
+  </si>
+  <si>
+    <t>*label_rel_id</t>
+  </si>
+  <si>
+    <t>#data_type</t>
+  </si>
+  <si>
+    <t>#data_id</t>
+  </si>
+  <si>
+    <t>#label_id</t>
+  </si>
+  <si>
+    <t>assign_type</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>角色</t>
   </si>
   <si>
@@ -2632,9 +2718,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>fd_level</t>
-  </si>
-  <si>
     <t>h_inherit_role_id</t>
   </si>
   <si>
@@ -2716,10 +2799,7 @@
     <t>role/organization/default/template/administrator</t>
   </si>
   <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/template/administrator</t>
+    <t>role/organization/default/administrator|HZERO.HZERO.role/organization/default/template/administrator</t>
   </si>
   <si>
     <t>Tenant Admin</t>
@@ -2743,9 +2823,6 @@
     <t>h_inherit_flag</t>
   </si>
   <si>
-    <t>#type</t>
-  </si>
-  <si>
     <t>iam_role_permission-13</t>
   </si>
   <si>
@@ -2795,84 +2872,13 @@
   </si>
   <si>
     <t>iam_role_permission-26</t>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>iam_label</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>inherit_flag</t>
-  </si>
-  <si>
-    <t>preset_flag</t>
-  </si>
-  <si>
-    <t>visible_flag</t>
-  </si>
-  <si>
-    <t>iam_label-8</t>
-  </si>
-  <si>
-    <t>HZERO_MENU</t>
-  </si>
-  <si>
-    <t>MENU</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>HZERO菜单标签</t>
-  </si>
-  <si>
-    <t>标签关系表</t>
-  </si>
-  <si>
-    <t>hiam_label_rel</t>
-  </si>
-  <si>
-    <t>*label_rel_id</t>
-  </si>
-  <si>
-    <t>#data_type</t>
-  </si>
-  <si>
-    <t>#data_id</t>
-  </si>
-  <si>
-    <t>#label_id</t>
-  </si>
-  <si>
-    <t>assign_type</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="77">
     <font>
       <sz val="12"/>
@@ -2992,358 +2998,299 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3536,65 +3483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3610,10 +3498,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3953,36 +3900,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3991,21 +3938,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="88" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4116,11 +4063,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4158,19 +4105,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="86"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="86"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4194,39 +4141,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4236,13 +4183,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" t="s" s="60">
         <v>53</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" t="s" s="61">
         <v>54</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" t="s" s="62">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4254,10 +4201,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" t="s" s="63">
         <v>59</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" t="s" s="64">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4278,7 +4225,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="60" t="s">
+      <c r="R7" t="s" s="65">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4303,7 +4250,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4359,7 +4306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9">
       <c r="E9" t="s">
         <v>88</v>
       </c>
@@ -4378,9 +4325,8 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
+      <c r="K9">
+        <f>菜单!$E$8</f>
       </c>
       <c r="L9" t="s">
         <v>93</v>
@@ -4416,7 +4362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10">
       <c r="E10" t="s">
         <v>98</v>
       </c>
@@ -4435,9 +4381,8 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+      <c r="K10">
+        <f>菜单!$E$9</f>
       </c>
       <c r="L10" t="s">
         <v>102</v>
@@ -4470,7 +4415,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11">
       <c r="E11" t="s">
         <v>106</v>
       </c>
@@ -4489,9 +4434,8 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
+      <c r="K11">
+        <f>菜单!$E$8</f>
       </c>
       <c r="L11" t="s">
         <v>93</v>
@@ -4527,7 +4471,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12">
       <c r="E12" t="s">
         <v>113</v>
       </c>
@@ -4543,9 +4487,8 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+      <c r="K12">
+        <f>菜单!$E$11</f>
       </c>
       <c r="L12" t="s">
         <v>102</v>
@@ -4575,7 +4518,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13">
       <c r="E13" t="s">
         <v>117</v>
       </c>
@@ -4591,9 +4534,8 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+      <c r="K13">
+        <f>菜单!$E$11</f>
       </c>
       <c r="L13" t="s">
         <v>102</v>
@@ -4626,7 +4568,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14">
       <c r="E14" t="s">
         <v>122</v>
       </c>
@@ -4642,9 +4584,8 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+      <c r="K14">
+        <f>菜单!$E$11</f>
       </c>
       <c r="L14" t="s">
         <v>102</v>
@@ -4674,7 +4615,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15">
       <c r="E15" t="s">
         <v>126</v>
       </c>
@@ -4690,9 +4631,8 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+      <c r="K15">
+        <f>菜单!$E$11</f>
       </c>
       <c r="L15" t="s">
         <v>102</v>
@@ -4722,7 +4662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16">
       <c r="E16" t="s">
         <v>130</v>
       </c>
@@ -4775,7 +4715,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="5:24">
+    <row r="17">
       <c r="E17" t="s">
         <v>135</v>
       </c>
@@ -4794,9 +4734,8 @@
       <c r="J17" t="s">
         <v>133</v>
       </c>
-      <c r="K17" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
+      <c r="K17">
+        <f>菜单!$E$16</f>
       </c>
       <c r="L17" t="s">
         <v>93</v>
@@ -4832,7 +4771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="5:24">
+    <row r="18">
       <c r="E18" t="s">
         <v>140</v>
       </c>
@@ -4848,9 +4787,8 @@
       <c r="J18" t="s">
         <v>133</v>
       </c>
-      <c r="K18" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+      <c r="K18">
+        <f>菜单!$E$17</f>
       </c>
       <c r="L18" t="s">
         <v>102</v>
@@ -4880,7 +4818,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="5:24">
+    <row r="19">
       <c r="E19" t="s">
         <v>144</v>
       </c>
@@ -4896,9 +4834,8 @@
       <c r="J19" t="s">
         <v>133</v>
       </c>
-      <c r="K19" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+      <c r="K19">
+        <f>菜单!$E$17</f>
       </c>
       <c r="L19" t="s">
         <v>102</v>
@@ -4931,7 +4868,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="5:24">
+    <row r="20">
       <c r="E20" t="s">
         <v>149</v>
       </c>
@@ -4947,9 +4884,8 @@
       <c r="J20" t="s">
         <v>133</v>
       </c>
-      <c r="K20" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+      <c r="K20">
+        <f>菜单!$E$17</f>
       </c>
       <c r="L20" t="s">
         <v>102</v>
@@ -4979,7 +4915,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="5:24">
+    <row r="21">
       <c r="E21" t="s">
         <v>153</v>
       </c>
@@ -4995,9 +4931,8 @@
       <c r="J21" t="s">
         <v>133</v>
       </c>
-      <c r="K21" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+      <c r="K21">
+        <f>菜单!$E$17</f>
       </c>
       <c r="L21" t="s">
         <v>102</v>
@@ -5028,45 +4963,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5076,851 +5010,1383 @@
       <c r="C7" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" t="s" s="66">
         <v>158</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" t="s" s="68">
         <v>159</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" t="s" s="69">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+        <v>162</v>
+      </c>
+      <c r="F8">
+        <f>菜单!$E$10</f>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>163</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <v>164</v>
+      </c>
+      <c r="F9">
+        <f>菜单!$E$12</f>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>165</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="E10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10">
+        <f>菜单!$E$12</f>
+      </c>
+      <c r="G10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11">
+        <f>菜单!$E$12</f>
+      </c>
+      <c r="G11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12">
+        <f>菜单!$E$12</f>
+      </c>
+      <c r="G12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13">
+        <f>菜单!$E$12</f>
+      </c>
+      <c r="G13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14">
+        <f>菜单!$E$12</f>
+      </c>
+      <c r="G14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15">
+        <f>菜单!$E$12</f>
+      </c>
+      <c r="G15" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G16" t="s">
         <v>165</v>
       </c>
-      <c r="F10" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="E11" t="s">
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G17" t="s">
         <v>167</v>
       </c>
-      <c r="F11" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" t="s">
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G18" t="s">
         <v>169</v>
       </c>
-      <c r="F12" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="E13" t="s">
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G19" t="s">
         <v>171</v>
       </c>
-      <c r="F13" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" t="s">
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G24" t="s">
         <v>173</v>
       </c>
-      <c r="F14" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" t="s">
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G25" t="s">
         <v>175</v>
       </c>
-      <c r="F15" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="E16" t="s">
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G26" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G29" t="s">
         <v>177</v>
       </c>
-      <c r="F16" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" t="s">
-        <v>178</v>
-      </c>
-      <c r="F17" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" t="s">
+      <c r="H29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="G31" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32">
+        <f>菜单!$E$14</f>
+      </c>
+      <c r="G32" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33">
+        <f>菜单!$E$14</f>
+      </c>
+      <c r="G33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34">
+        <f>菜单!$E$14</f>
+      </c>
+      <c r="G34" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35">
+        <f>菜单!$E$14</f>
+      </c>
+      <c r="G35" t="s">
         <v>183</v>
       </c>
-      <c r="F21" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" t="s">
+      <c r="H35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36">
+        <f>菜单!$E$14</f>
+      </c>
+      <c r="G36" t="s">
         <v>185</v>
       </c>
-      <c r="F22" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" t="s">
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37">
+        <f>菜单!$E$14</f>
+      </c>
+      <c r="G37" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="G38" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="G39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="G40" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F41">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="G41" t="s">
         <v>187</v>
       </c>
-      <c r="F23" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" t="s">
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="G42" t="s">
         <v>189</v>
       </c>
-      <c r="F24" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7">
-      <c r="E27" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7">
-      <c r="E28" t="s">
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="G43" t="s">
         <v>195</v>
       </c>
-      <c r="F28" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7">
-      <c r="E29" t="s">
+      <c r="H43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="G44" t="s">
         <v>197</v>
       </c>
-      <c r="F29" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7">
-      <c r="E30" t="s">
-        <v>198</v>
-      </c>
-      <c r="F30" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7">
-      <c r="E31" t="s">
+      <c r="H44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="G45" t="s">
         <v>200</v>
       </c>
-      <c r="F31" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7">
-      <c r="E32" t="s">
-        <v>202</v>
-      </c>
-      <c r="F32" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7">
-      <c r="E33" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7">
-      <c r="E34" t="s">
-        <v>204</v>
-      </c>
-      <c r="F34" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7">
-      <c r="E35" t="s">
-        <v>205</v>
-      </c>
-      <c r="F35" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7">
-      <c r="E36" t="s">
-        <v>206</v>
-      </c>
-      <c r="F36" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7">
-      <c r="E37" t="s">
-        <v>207</v>
-      </c>
-      <c r="F37" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7">
-      <c r="E38" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7">
-      <c r="E39" t="s">
-        <v>209</v>
-      </c>
-      <c r="F39" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7">
-      <c r="E40" t="s">
-        <v>210</v>
-      </c>
-      <c r="F40" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7">
-      <c r="E41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F41" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7">
-      <c r="E42" t="s">
-        <v>212</v>
-      </c>
-      <c r="F42" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7">
-      <c r="E43" t="s">
-        <v>213</v>
-      </c>
-      <c r="F43" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44" t="s">
-        <v>214</v>
-      </c>
-      <c r="F44" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45" t="s">
-        <v>215</v>
-      </c>
-      <c r="F45" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7">
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="E46" t="s">
-        <v>216</v>
-      </c>
-      <c r="F46" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <v>217</v>
+      </c>
+      <c r="F46">
+        <f>菜单!$E$18</f>
       </c>
       <c r="G46" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7">
+        <v>218</v>
+      </c>
+      <c r="H46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="E47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47">
+        <f>菜单!$E$18</f>
+      </c>
+      <c r="G47" t="s">
+        <v>220</v>
+      </c>
+      <c r="H47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>221</v>
+      </c>
+      <c r="F48">
+        <f>菜单!$E$18</f>
+      </c>
+      <c r="G48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49">
+        <f>菜单!$E$18</f>
+      </c>
+      <c r="G49" t="s">
+        <v>224</v>
+      </c>
+      <c r="H49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G50" t="s">
+        <v>165</v>
+      </c>
+      <c r="H50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G51" t="s">
+        <v>167</v>
+      </c>
+      <c r="H51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G52" t="s">
+        <v>169</v>
+      </c>
+      <c r="H52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G53" t="s">
+        <v>229</v>
+      </c>
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G54" t="s">
         <v>218</v>
       </c>
-      <c r="F47" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7">
-      <c r="E48" t="s">
+      <c r="H54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>231</v>
+      </c>
+      <c r="F55">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G55" t="s">
+        <v>232</v>
+      </c>
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G56" t="s">
+        <v>234</v>
+      </c>
+      <c r="H56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G57" t="s">
+        <v>236</v>
+      </c>
+      <c r="H57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>237</v>
+      </c>
+      <c r="F58">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G58" t="s">
+        <v>238</v>
+      </c>
+      <c r="H58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G59" t="s">
         <v>220</v>
       </c>
-      <c r="F48" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7">
-      <c r="E49" t="s">
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>240</v>
+      </c>
+      <c r="F60">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G60" t="s">
         <v>222</v>
       </c>
-      <c r="F49" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7">
-      <c r="E50" t="s">
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G61" t="s">
+        <v>242</v>
+      </c>
+      <c r="H61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>243</v>
+      </c>
+      <c r="F62">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G62" t="s">
+        <v>244</v>
+      </c>
+      <c r="H62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>245</v>
+      </c>
+      <c r="F63">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G63" t="s">
+        <v>246</v>
+      </c>
+      <c r="H63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>247</v>
+      </c>
+      <c r="F64">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G64" t="s">
         <v>224</v>
       </c>
-      <c r="F50" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51" t="s">
-        <v>225</v>
-      </c>
-      <c r="F51" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7">
-      <c r="E52" t="s">
-        <v>226</v>
-      </c>
-      <c r="F52" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7">
-      <c r="E53" t="s">
-        <v>227</v>
-      </c>
-      <c r="F53" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7">
-      <c r="E54" t="s">
-        <v>229</v>
-      </c>
-      <c r="F54" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7">
-      <c r="E55" t="s">
-        <v>230</v>
-      </c>
-      <c r="F55" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7">
-      <c r="E56" t="s">
+      <c r="H64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>248</v>
+      </c>
+      <c r="F65">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G65" t="s">
+        <v>249</v>
+      </c>
+      <c r="H65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>250</v>
+      </c>
+      <c r="F66">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G66" t="s">
+        <v>251</v>
+      </c>
+      <c r="H66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>252</v>
+      </c>
+      <c r="F67">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="G67" t="s">
+        <v>253</v>
+      </c>
+      <c r="H67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68">
+        <f>菜单!$E$20</f>
+      </c>
+      <c r="G68" t="s">
         <v>232</v>
       </c>
-      <c r="F56" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7">
-      <c r="E57" t="s">
+      <c r="H68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69">
+        <f>菜单!$E$20</f>
+      </c>
+      <c r="G69" t="s">
         <v>234</v>
       </c>
-      <c r="F57" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7">
-      <c r="E58" t="s">
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70">
+        <f>菜单!$E$20</f>
+      </c>
+      <c r="G70" t="s">
+        <v>242</v>
+      </c>
+      <c r="H70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
+        <v>257</v>
+      </c>
+      <c r="F71">
+        <f>菜单!$E$21</f>
+      </c>
+      <c r="G71" t="s">
         <v>236</v>
       </c>
-      <c r="F58" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="5:7">
-      <c r="E59" t="s">
+      <c r="H71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
+        <v>258</v>
+      </c>
+      <c r="F72">
+        <f>菜单!$E$21</f>
+      </c>
+      <c r="G72" t="s">
         <v>238</v>
       </c>
-      <c r="F59" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="5:7">
-      <c r="E60" t="s">
-        <v>239</v>
-      </c>
-      <c r="F60" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="5:7">
-      <c r="E61" t="s">
-        <v>240</v>
-      </c>
-      <c r="F61" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="62" spans="5:7">
-      <c r="E62" t="s">
-        <v>242</v>
-      </c>
-      <c r="F62" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="5:7">
-      <c r="E63" t="s">
+      <c r="H72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s">
+        <v>259</v>
+      </c>
+      <c r="F73">
+        <f>菜单!$E$21</f>
+      </c>
+      <c r="G73" t="s">
         <v>244</v>
       </c>
-      <c r="F63" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="5:7">
-      <c r="E64" t="s">
+      <c r="H73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74">
+        <f>菜单!$E$21</f>
+      </c>
+      <c r="G74" t="s">
         <v>246</v>
       </c>
-      <c r="F64" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" spans="5:7">
-      <c r="E65" t="s">
-        <v>247</v>
-      </c>
-      <c r="F65" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="66" spans="5:7">
-      <c r="E66" t="s">
-        <v>249</v>
-      </c>
-      <c r="F66" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="5:7">
-      <c r="E67" t="s">
-        <v>251</v>
-      </c>
-      <c r="F67" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7">
-      <c r="E68" t="s">
-        <v>252</v>
-      </c>
-      <c r="F68" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7">
-      <c r="E69" t="s">
-        <v>253</v>
-      </c>
-      <c r="F69" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="70" spans="5:7">
-      <c r="E70" t="s">
-        <v>254</v>
-      </c>
-      <c r="F70" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" spans="5:7">
-      <c r="E71" t="s">
-        <v>255</v>
-      </c>
-      <c r="F71" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="72" spans="5:7">
-      <c r="E72" t="s">
-        <v>256</v>
-      </c>
-      <c r="F72" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7">
-      <c r="E73" t="s">
-        <v>257</v>
-      </c>
-      <c r="F73" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>245</v>
+      <c r="H74" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="46">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="47">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="48">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s" s="50">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="51">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="52">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" t="s" s="70">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s" s="71">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s" s="72">
+        <v>263</v>
+      </c>
+      <c r="G7" t="s" s="73">
+        <v>264</v>
+      </c>
+      <c r="H7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M7" t="s">
+        <v>270</v>
+      </c>
+      <c r="N7" t="s">
+        <v>271</v>
+      </c>
+      <c r="O7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J8" t="s">
+        <v>277</v>
+      </c>
+      <c r="K8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" t="s" s="74">
+        <v>279</v>
+      </c>
+      <c r="E10" t="s" s="75">
+        <v>280</v>
+      </c>
+      <c r="F10" t="s" s="76">
+        <v>281</v>
+      </c>
+      <c r="G10" t="s" s="77">
+        <v>282</v>
+      </c>
+      <c r="H10" t="s" s="78">
+        <v>283</v>
+      </c>
+      <c r="I10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11">
+        <f>菜单!$E$8</f>
+      </c>
+      <c r="H11">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12">
+        <f>菜单!$E$9</f>
+      </c>
+      <c r="H12">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13">
+        <f>菜单!$E$10</f>
+      </c>
+      <c r="H13">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14">
+        <f>菜单!$E$11</f>
+      </c>
+      <c r="H14">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15">
+        <f>菜单!$E$12</f>
+      </c>
+      <c r="H15">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16">
+        <f>菜单!$E$13</f>
+      </c>
+      <c r="H16">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17">
+        <f>菜单!$E$14</f>
+      </c>
+      <c r="H17">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18">
+        <f>菜单!$E$15</f>
+      </c>
+      <c r="H18">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19">
+        <f>菜单!$E$16</f>
+      </c>
+      <c r="H19">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20">
+        <f>菜单!$E$17</f>
+      </c>
+      <c r="H20">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" t="s">
+        <v>275</v>
+      </c>
+      <c r="G21">
+        <f>菜单!$E$18</f>
+      </c>
+      <c r="H21">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>285</v>
+      </c>
+      <c r="F22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="H22">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23">
+        <f>菜单!$E$20</f>
+      </c>
+      <c r="H23">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>285</v>
+      </c>
+      <c r="F24" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24">
+        <f>菜单!$E$21</f>
+      </c>
+      <c r="H24">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="53">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="54">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="55">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="56">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="58">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="59">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5928,12 +6394,12 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" t="s" s="79">
+        <v>288</v>
+      </c>
+      <c r="E7" t="s" s="80">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -5942,76 +6408,76 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" t="s" s="81">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K7" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7" t="s" s="82">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M7" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="N7" s="70" t="s">
-        <v>264</v>
+        <v>290</v>
+      </c>
+      <c r="M7" t="s" s="83">
+        <v>291</v>
+      </c>
+      <c r="N7" t="s" s="84">
+        <v>292</v>
       </c>
       <c r="O7" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="P7" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="Q7" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="R7" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="S7" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="T7" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>271</v>
-      </c>
-      <c r="W7" s="71" t="s">
-        <v>272</v>
+        <v>299</v>
+      </c>
+      <c r="W7" t="s" s="85">
+        <v>300</v>
       </c>
       <c r="X7" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="G8" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="H8" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="I8" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="J8" t="s">
         <v>133</v>
@@ -6047,30 +6513,30 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="V8" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9">
       <c r="E9" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="G9" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="H9" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="I9" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -6106,27 +6572,27 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="V9" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10">
       <c r="E10" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="F10" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="H10" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="J10" t="s">
         <v>80</v>
@@ -6137,9 +6603,8 @@
       <c r="L10" t="s">
         <v>81</v>
       </c>
-      <c r="M10" t="str">
+      <c r="M10">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
         <v>80</v>
@@ -6163,22 +6628,22 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="V10" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="Y10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -6186,756 +6651,356 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="E12" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" t="s" s="86">
+        <v>320</v>
+      </c>
+      <c r="E12" t="s" s="87">
         <v>54</v>
       </c>
-      <c r="F12" s="74" t="s">
-        <v>294</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>295</v>
+      <c r="F12" t="s" s="88">
+        <v>321</v>
+      </c>
+      <c r="G12" t="s" s="89">
+        <v>322</v>
       </c>
       <c r="H12" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="I12" t="s">
-        <v>297</v>
-      </c>
-      <c r="J12" s="76" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>324</v>
+      </c>
+      <c r="J12" t="s" s="90">
+        <v>264</v>
+      </c>
+      <c r="K12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="E13" t="s">
-        <v>299</v>
-      </c>
-      <c r="F13" t="str">
+        <v>325</v>
+      </c>
+      <c r="F13">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G13" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+      </c>
+      <c r="G13">
+        <f>菜单!$E$10</f>
       </c>
       <c r="H13" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>328</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="E14" t="s">
-        <v>303</v>
-      </c>
-      <c r="F14" t="str">
+        <v>329</v>
+      </c>
+      <c r="F14">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G14" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+      </c>
+      <c r="G14">
+        <f>菜单!$E$10</f>
       </c>
       <c r="H14" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+        <v>328</v>
+      </c>
+      <c r="K14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="E15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F15" t="str">
+        <v>330</v>
+      </c>
+      <c r="F15">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G15" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+      </c>
+      <c r="G15">
+        <f>菜单!$E$12</f>
       </c>
       <c r="H15" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I15" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>328</v>
+      </c>
+      <c r="K15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="E16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F16" t="str">
+        <v>331</v>
+      </c>
+      <c r="F16">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G16" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+      </c>
+      <c r="G16">
+        <f>菜单!$E$12</f>
       </c>
       <c r="H16" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I16" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10">
+        <v>328</v>
+      </c>
+      <c r="K16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="E17" t="s">
-        <v>306</v>
-      </c>
-      <c r="F17" t="str">
+        <v>332</v>
+      </c>
+      <c r="F17">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G17" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+      </c>
+      <c r="G17">
+        <f>菜单!$E$13</f>
       </c>
       <c r="H17" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I17" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10">
+        <v>328</v>
+      </c>
+      <c r="K17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="E18" t="s">
-        <v>307</v>
-      </c>
-      <c r="F18" t="str">
+        <v>333</v>
+      </c>
+      <c r="F18">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G18" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+      </c>
+      <c r="G18">
+        <f>菜单!$E$13</f>
       </c>
       <c r="H18" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I18" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10">
+        <v>328</v>
+      </c>
+      <c r="K18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="E19" t="s">
-        <v>308</v>
-      </c>
-      <c r="F19" t="str">
+        <v>334</v>
+      </c>
+      <c r="F19">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G19" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+      </c>
+      <c r="G19">
+        <f>菜单!$E$14</f>
       </c>
       <c r="H19" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I19" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10">
+        <v>328</v>
+      </c>
+      <c r="K19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="E20" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20" t="str">
+        <v>335</v>
+      </c>
+      <c r="F20">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G20" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
+      </c>
+      <c r="G20">
+        <f>菜单!$E$14</f>
       </c>
       <c r="H20" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I20" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10">
+        <v>328</v>
+      </c>
+      <c r="K20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="E21" t="s">
-        <v>310</v>
-      </c>
-      <c r="F21" t="str">
+        <v>336</v>
+      </c>
+      <c r="F21">
         <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G21" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+      </c>
+      <c r="G21">
+        <f>菜单!$E$15</f>
       </c>
       <c r="H21" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I21" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J21" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10">
+        <v>328</v>
+      </c>
+      <c r="K21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="E22" t="s">
-        <v>311</v>
-      </c>
-      <c r="F22" t="str">
+        <v>337</v>
+      </c>
+      <c r="F22">
         <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G22" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+      </c>
+      <c r="G22">
+        <f>菜单!$E$15</f>
       </c>
       <c r="H22" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I22" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10">
-      <c r="E23" t="s">
-        <v>312</v>
-      </c>
-      <c r="F23" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G23" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>300</v>
-      </c>
-      <c r="I23" t="s">
-        <v>301</v>
-      </c>
-      <c r="J23" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10">
-      <c r="E24" t="s">
-        <v>313</v>
-      </c>
-      <c r="F24" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G24" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>300</v>
-      </c>
-      <c r="I24" t="s">
-        <v>301</v>
-      </c>
-      <c r="J24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10">
-      <c r="E25" t="s">
-        <v>314</v>
-      </c>
-      <c r="F25" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G25" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H25" t="s">
-        <v>300</v>
-      </c>
-      <c r="I25" t="s">
-        <v>301</v>
-      </c>
-      <c r="J25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10">
-      <c r="E26" t="s">
-        <v>315</v>
-      </c>
-      <c r="F26" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G26" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="H26" t="s">
-        <v>300</v>
-      </c>
-      <c r="I26" t="s">
-        <v>301</v>
-      </c>
-      <c r="J26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>317</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>318</v>
-      </c>
-      <c r="G7" s="80" t="s">
-        <v>298</v>
-      </c>
-      <c r="H7" t="s">
-        <v>319</v>
-      </c>
-      <c r="I7" t="s">
-        <v>261</v>
-      </c>
-      <c r="J7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M7" t="s">
-        <v>323</v>
-      </c>
-      <c r="N7" t="s">
-        <v>324</v>
-      </c>
-      <c r="O7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="E8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F8" t="s">
-        <v>327</v>
-      </c>
-      <c r="G8" t="s">
         <v>328</v>
       </c>
-      <c r="H8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" t="s">
-        <v>329</v>
-      </c>
-      <c r="J8" t="s">
-        <v>330</v>
-      </c>
-      <c r="K8" t="s">
-        <v>330</v>
-      </c>
-      <c r="M8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>332</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>333</v>
-      </c>
-      <c r="F10" s="83" t="s">
-        <v>334</v>
-      </c>
-      <c r="G10" s="84" t="s">
-        <v>335</v>
-      </c>
-      <c r="H10" s="85" t="s">
-        <v>336</v>
-      </c>
-      <c r="I10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F11" t="s">
-        <v>328</v>
-      </c>
-      <c r="G11" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H11" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" t="s">
-        <v>338</v>
-      </c>
-      <c r="F12" t="s">
-        <v>328</v>
-      </c>
-      <c r="G12" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H12" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" t="s">
-        <v>338</v>
-      </c>
-      <c r="F13" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H13" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="E14" t="s">
-        <v>338</v>
-      </c>
-      <c r="F14" t="s">
-        <v>328</v>
-      </c>
-      <c r="G14" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H14" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" t="s">
-        <v>338</v>
-      </c>
-      <c r="F15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G15" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H15" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="E16" t="s">
-        <v>338</v>
-      </c>
-      <c r="F16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G16" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H16" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
-      <c r="E17" t="s">
-        <v>338</v>
-      </c>
-      <c r="F17" t="s">
-        <v>328</v>
-      </c>
-      <c r="G17" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H17" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I17" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9">
-      <c r="E18" t="s">
-        <v>338</v>
-      </c>
-      <c r="F18" t="s">
-        <v>328</v>
-      </c>
-      <c r="G18" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H18" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9">
-      <c r="E19" t="s">
-        <v>338</v>
-      </c>
-      <c r="F19" t="s">
-        <v>328</v>
-      </c>
-      <c r="G19" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H19" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9">
-      <c r="E20" t="s">
-        <v>338</v>
-      </c>
-      <c r="F20" t="s">
-        <v>328</v>
-      </c>
-      <c r="G20" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H20" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9">
-      <c r="E21" t="s">
-        <v>338</v>
-      </c>
-      <c r="F21" t="s">
-        <v>328</v>
-      </c>
-      <c r="G21" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H21" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I21" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
-      <c r="E22" t="s">
-        <v>338</v>
-      </c>
-      <c r="F22" t="s">
-        <v>328</v>
-      </c>
-      <c r="G22" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H22" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I22" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
+      <c r="K22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="E23" t="s">
         <v>338</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G23">
+        <f>菜单!$E$18</f>
+      </c>
+      <c r="H23" t="s">
+        <v>326</v>
+      </c>
+      <c r="I23" t="s">
+        <v>327</v>
+      </c>
+      <c r="J23" t="s">
         <v>328</v>
       </c>
-      <c r="G23" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H23" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="24" spans="5:9">
-      <c r="E24" t="s">
-        <v>338</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="F24">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G24">
+        <f>菜单!$E$19</f>
+      </c>
+      <c r="H24" t="s">
+        <v>326</v>
+      </c>
+      <c r="I24" t="s">
+        <v>327</v>
+      </c>
+      <c r="J24" t="s">
         <v>328</v>
       </c>
-      <c r="G24" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="H24" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I24" t="s">
-        <v>339</v>
+      <c r="K24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>340</v>
+      </c>
+      <c r="F25">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G25">
+        <f>菜单!$E$20</f>
+      </c>
+      <c r="H25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I25" t="s">
+        <v>327</v>
+      </c>
+      <c r="J25" t="s">
+        <v>328</v>
+      </c>
+      <c r="K25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>341</v>
+      </c>
+      <c r="F26">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G26">
+        <f>菜单!$E$21</f>
+      </c>
+      <c r="H26" t="s">
+        <v>326</v>
+      </c>
+      <c r="I26" t="s">
+        <v>327</v>
+      </c>
+      <c r="J26" t="s">
+        <v>328</v>
+      </c>
+      <c r="K26" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>